--- a/experiment/quadratic/ex9_2_5/compare/Fuertemente-Estacionario/ex9_2_5_Fuertemente-Estacionario.xlsx
+++ b/experiment/quadratic/ex9_2_5/compare/Fuertemente-Estacionario/ex9_2_5_Fuertemente-Estacionario.xlsx
@@ -479,13 +479,13 @@
         <v>-236.1412007971667</v>
       </c>
       <c r="E2">
-        <v>0.00544716</v>
+        <v>0.00588094</v>
       </c>
       <c r="F2">
-        <v>0.01147806</v>
+        <v>0.014986091</v>
       </c>
       <c r="G2">
-        <v>0.006624272029177719</v>
+        <v>0.007121795407988588</v>
       </c>
       <c r="H2">
         <v>2307</v>
@@ -514,13 +514,13 @@
         <v>-236.1412030472003</v>
       </c>
       <c r="E3">
-        <v>0.00632169</v>
+        <v>0.006642398</v>
       </c>
       <c r="F3">
-        <v>0.01591461</v>
+        <v>0.013689426</v>
       </c>
       <c r="G3">
-        <v>0.007656473236196319</v>
+        <v>0.007361066086892489</v>
       </c>
       <c r="H3">
         <v>6368</v>
